--- a/ampl-data-input-excel/36-assign-423-with-ubday-full/36-assign-423-with-ubday-full.xlsx
+++ b/ampl-data-input-excel/36-assign-423-with-ubday-full/36-assign-423-with-ubday-full.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -2568,8 +2568,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2619,8 +2619,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="31" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
+        <f aca="false">E2+200</f>
+        <v>45858</v>
       </c>
       <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
@@ -2979,7 +2979,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/36-assign-423-with-ubday-full/36-assign-423-with-ubday-full.xlsx
+++ b/ampl-data-input-excel/36-assign-423-with-ubday-full/36-assign-423-with-ubday-full.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
+    <t xml:space="preserve">ubday</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -2502,8 +2502,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2568,7 +2568,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/36-assign-423-with-ubday-full/36-assign-423-with-ubday-full.xlsx
+++ b/ampl-data-input-excel/36-assign-423-with-ubday-full/36-assign-423-with-ubday-full.xlsx
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">ubday</t>
+    <t xml:space="preserve">solid-ubday</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
